--- a/fhir/ig/mpi/all-profiles.xlsx
+++ b/fhir/ig/mpi/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T11:09:02-03:00</t>
+    <t>2023-10-06T15:57:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/all-profiles.xlsx
+++ b/fhir/ig/mpi/all-profiles.xlsx
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/AgrupacionPorMarcas</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/AgrupacionPorMarcas</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T15:57:40-03:00</t>
+    <t>2023-10-12T17:29:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
@@ -556,7 +556,7 @@
     <t>Need a formal way of identifying the characteristic being described.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSGrupoMarcas</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSGrupoMarcas</t>
   </si>
   <si>
     <t>Group.characteristic.code.id</t>
@@ -786,7 +786,7 @@
     <t>Group.member.entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI)
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>DirigenteVecinal</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal</t>
   </si>
   <si>
     <t>Dirigente Vecinal</t>
@@ -896,7 +896,7 @@
     <t>NivelEducacional</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/NivelEducacional</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/NivelEducacional</t>
   </si>
   <si>
     <t>Nivel Educacional</t>
@@ -1037,7 +1037,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSTipoObservacion</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSTipoObservacion</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -1281,7 +1281,7 @@
     <t>Observation.value[x].coding</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSOcupacionesDet</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSOcupacionesDet</t>
   </si>
   <si>
     <t>Observation.value[x]:valueCodeableConcept.coding.id</t>
@@ -1970,25 +1970,25 @@
     <t>Prilonco</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/Prilonco</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Prilonco</t>
   </si>
   <si>
     <t>PueblosAfrodescendiente</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosAfrodescendiente</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosAfrodescendiente</t>
   </si>
   <si>
     <t>Antuco</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/Antuco</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Antuco</t>
   </si>
   <si>
     <t>CoberturaMinsalMPI</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/CoberturaMinsalMPI</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/CoberturaMinsalMPI</t>
   </si>
   <si>
     <t>Cobertura de Salud del paciente</t>
@@ -2043,7 +2043,7 @@
     <t>Coverage.extension:DirigenteVecinal</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal}
 </t>
   </si>
   <si>
@@ -2053,7 +2053,7 @@
     <t>Prais</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Prais}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Prais}
 </t>
   </si>
   <si>
@@ -2063,14 +2063,14 @@
     <t>Coverage.extension:Antuco</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Antuco}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Antuco}
 </t>
   </si>
   <si>
     <t>Coverage.extension:Prilonco</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Prilonco}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Prilonco}
 </t>
   </si>
   <si>
@@ -2293,7 +2293,7 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSPrevision</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSPrevision</t>
   </si>
   <si>
     <t>Coverage.class.type.id</t>
@@ -2534,7 +2534,7 @@
     <t>Religion</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/Religion</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Religion</t>
   </si>
   <si>
     <t>Religión</t>
@@ -2573,7 +2573,7 @@
     <t>Nombre de la religión</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSReligion</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSReligion</t>
   </si>
   <si>
     <t>Extension.value[x].coding.display</t>
@@ -2585,13 +2585,13 @@
     <t>Extension.value[x].text</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/Prais</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Prais</t>
   </si>
   <si>
     <t>SituacionDiscapacidad</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionDiscapacidad</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionDiscapacidad</t>
   </si>
   <si>
     <t>Situacion Discapacidad</t>
@@ -2603,7 +2603,7 @@
     <t>OrigenDiscapacidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/OrigenDiscapacidad}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/OrigenDiscapacidad}
 </t>
   </si>
   <si>
@@ -2613,7 +2613,7 @@
     <t>03</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSValoracionDesempeno</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSValoracionDesempeno</t>
   </si>
   <si>
     <t>Component results</t>
@@ -2625,7 +2625,7 @@
     <t>PacienteMinsalMPI</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PacienteMinsalMPI</t>
   </si>
   <si>
     <t>PacienteMPI</t>
@@ -2798,7 +2798,7 @@
     <t>PaisOrigen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PaisOrigenMPI}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PaisOrigenMPI}
 </t>
   </si>
   <si>
@@ -2808,7 +2808,7 @@
     <t>Patient.extension:Religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/Religion}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Religion}
 </t>
   </si>
   <si>
@@ -2818,7 +2818,7 @@
     <t>SexoBiologico</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/SexoBiologico}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/SexoBiologico}
 </t>
   </si>
   <si>
@@ -2831,7 +2831,7 @@
     <t>identidadGenero</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/IdentidadDeGenero}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/IdentidadDeGenero}
 </t>
   </si>
   <si>
@@ -2860,14 +2860,14 @@
     <t>PueblosOriginariosPerteneciente</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginariosPerteneciente}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginariosPerteneciente}
 </t>
   </si>
   <si>
     <t>Patient.extension:PueblosAfrodescendiente</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosAfrodescendiente}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosAfrodescendiente}
 </t>
   </si>
   <si>
@@ -2877,7 +2877,7 @@
     <t>PueblosOriginarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginarios}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginarios}
 </t>
   </si>
   <si>
@@ -3628,7 +3628,7 @@
     <t>SituacionCalle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionCalle}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionCalle}
 </t>
   </si>
   <si>
@@ -3930,7 +3930,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSEstadoCivil</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSEstadoCivil</t>
   </si>
   <si>
     <t>Patient.multipleBirth[x]</t>
@@ -4461,7 +4461,7 @@
     <t>RelatedPersonMPI</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/RelatedPersonMPI</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/RelatedPersonMPI</t>
   </si>
   <si>
     <t>RelatedPerson</t>
@@ -4659,10 +4659,10 @@
     <t>RelatedPerson.communication.preferred</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginariosPerteneciente</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginarios</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginariosPerteneciente</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PueblosOriginarios</t>
   </si>
   <si>
     <t>Código Pueblo Originario</t>
@@ -4671,7 +4671,7 @@
     <t>Código del pueblo</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/PueblosOriginariosVS</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/PueblosOriginariosVS</t>
   </si>
   <si>
     <t>Nombre del pueblo</t>
@@ -4680,22 +4680,22 @@
     <t>Otro pueblo originario</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/OrigenDiscapacidad</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/OrigenDiscapacidad</t>
   </si>
   <si>
     <t>Código discapacidad</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSOrigenDiscapacidad</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSOrigenDiscapacidad</t>
   </si>
   <si>
     <t>Nombre discapacidad</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionCalle</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/SexoBiologico</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/SituacionCalle</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/SexoBiologico</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
@@ -4704,19 +4704,19 @@
     <t>IdentidadDeGenero</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/IdentidadDeGenero</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/IdentidadDeGenero</t>
   </si>
   <si>
     <t>Extension.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSIdentidadDeGenero</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSIdentidadDeGenero</t>
   </si>
   <si>
     <t>Ocupacion</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/Ocupacion</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Ocupacion</t>
   </si>
   <si>
     <t>Ocupación</t>
@@ -4793,7 +4793,7 @@
     <t>PaisOrigenMPI</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/PaisOrigenMPI</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/PaisOrigenMPI</t>
   </si>
 </sst>
 </file>
@@ -8322,7 +8322,7 @@
     <col min="24" max="24" width="9.16015625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="139.65234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="57.7265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="74.49609375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="10.484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="74.1484375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/mpi/all-profiles.xlsx
+++ b/fhir/ig/mpi/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:29:20-03:00</t>
+    <t>2023-10-18T10:23:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
